--- a/assets/calculos-agregacao.xlsx
+++ b/assets/calculos-agregacao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-federated-didactic\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Desktop\recsys-federated-didactic\assets3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202E6665-A7E2-442D-82E2-2AD0F6E67E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765B30D9-5F5B-48A4-973F-17453B6F6281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D4F66195-EFED-4ADF-BEF6-C03392CF6064}"/>
   </bookViews>
@@ -125,9 +125,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -451,16 +452,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B6C224-97E5-4AF2-A6A4-6DE9D905B35C}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -470,37 +473,46 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="8" t="s">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="8">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0.32</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -509,36 +521,41 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -548,8 +565,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -559,97 +577,104 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="4">
         <v>0.44</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="4">
         <v>0.66</v>
       </c>
-      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="6">
-        <f>AVERAGE(C10:C13)</f>
+      <c r="D14" s="7">
+        <f>AVERAGE(D10:D13)</f>
         <v>0.5575</v>
       </c>
-      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -659,8 +684,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -670,8 +696,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -681,8 +708,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -692,8 +720,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -703,8 +732,9 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -714,8 +744,9 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -725,8 +756,9 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -736,8 +768,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -747,8 +780,9 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -758,8 +792,9 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -769,8 +804,9 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -780,8 +816,9 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -791,12 +828,13 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
